--- a/server/docs/AttrCfgExcel_com.wan37.config.entity.AttrCfgExcel.xlsx
+++ b/server/docs/AttrCfgExcel_com.wan37.config.entity.AttrCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD5E904-64A8-447F-86D1-B3F9ACBC4579}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71253A82-8722-4FE5-BF7D-A2835C707565}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,14 @@
   </si>
   <si>
     <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础值，用于计算总面板伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,26 +420,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -441,101 +453,140 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/AttrCfgExcel_com.wan37.config.entity.AttrCfgExcel.xlsx
+++ b/server/docs/AttrCfgExcel_com.wan37.config.entity.AttrCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71253A82-8722-4FE5-BF7D-A2835C707565}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E97E93-C3BA-4B83-BA6A-9F4CCE3EF72C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,14 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔法攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>敏捷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔法防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,11 +78,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>baseValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础值，用于计算总面板伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseAttackValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础值，用于计算面板总防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseDefenseValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,30 +416,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -451,13 +451,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -465,10 +468,13 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -476,10 +482,13 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -487,43 +496,55 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -531,10 +552,13 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -542,10 +566,13 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -553,40 +580,10 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/AttrCfgExcel_com.wan37.config.entity.AttrCfgExcel.xlsx
+++ b/server/docs/AttrCfgExcel_com.wan37.config.entity.AttrCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E97E93-C3BA-4B83-BA6A-9F4CCE3EF72C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DB18D8-54DE-4996-9B4C-0DC4C3A3B0FE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -496,7 +496,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0</v>

--- a/server/docs/AttrCfgExcel_com.wan37.config.entity.AttrCfgExcel.xlsx
+++ b/server/docs/AttrCfgExcel_com.wan37.config.entity.AttrCfgExcel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DB18D8-54DE-4996-9B4C-0DC4C3A3B0FE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D48DBAB-F3AB-4FF6-90B5-6E44BD4B722B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>baseDefenseValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipBaseScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备基础评分，用于计算装备分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,6 +150,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -161,7 +237,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -416,20 +492,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -442,8 +519,11 @@
       <c r="E1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -459,8 +539,11 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -473,8 +556,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -487,8 +573,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -501,8 +590,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -515,8 +607,11 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -529,8 +624,11 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -543,8 +641,11 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -557,8 +658,11 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -571,8 +675,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -584,6 +691,9 @@
       </c>
       <c r="E11">
         <v>5</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
